--- a/assets/sheets/SREENFRESH.xlsx
+++ b/assets/sheets/SREENFRESH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Files\flutter\NewProjects\maintenance2\assets\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1831195-4E22-471C-B5A0-4C7F485F74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823D191-AA8E-45D5-8C31-4297299C5CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B1202D18-1DCE-4A70-8F5B-214D569B1580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1202D18-1DCE-4A70-8F5B-214D569B1580}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="347">
   <si>
     <t>FREAR-120LDG</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>A/C SREEN WINDOW 24 COID 21500</t>
+  </si>
+  <si>
+    <t>غسالات عادية</t>
   </si>
 </sst>
 </file>
@@ -1182,9 +1185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1222,7 +1225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1328,7 +1331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1470,7 +1473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1480,22 +1483,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296ACCD2-AF7A-42B7-A3B6-D18A02171714}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1723,7 +1726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1751,7 +1754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1779,7 +1782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1807,7 +1810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1835,7 +1838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1863,7 +1866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1891,7 +1894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1919,7 +1922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1947,7 +1950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1975,7 +1978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2003,7 +2006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>346</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2031,7 +2034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2047,7 +2050,9 @@
       <c r="E22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -2057,7 +2062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2073,7 +2078,9 @@
       <c r="E23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -2083,7 +2090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2099,7 +2106,9 @@
       <c r="E24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
@@ -2109,7 +2118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2125,7 +2134,9 @@
       <c r="E25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -2135,7 +2146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -2151,7 +2162,9 @@
       <c r="E26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
@@ -2161,7 +2174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2190,9 @@
       <c r="E27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -2187,7 +2202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2218,9 @@
       <c r="E28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -2213,7 +2230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -2229,7 +2246,9 @@
       <c r="E29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -2239,7 +2258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2255,7 +2274,9 @@
       <c r="E30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -2265,7 +2286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2281,7 +2302,9 @@
       <c r="E31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -2291,7 +2314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2307,7 +2330,9 @@
       <c r="E32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -2317,7 +2342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2333,7 +2358,9 @@
       <c r="E33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
@@ -2343,7 +2370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2359,7 +2386,9 @@
       <c r="E34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
@@ -2369,7 +2398,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2385,7 +2414,9 @@
       <c r="E35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
@@ -2395,7 +2426,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2411,7 +2442,9 @@
       <c r="E36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
@@ -2421,7 +2454,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2437,7 +2470,9 @@
       <c r="E37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
@@ -2447,7 +2482,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2463,7 +2498,9 @@
       <c r="E38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
@@ -2473,7 +2510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2489,7 +2526,9 @@
       <c r="E39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
@@ -2499,7 +2538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -2515,7 +2554,9 @@
       <c r="E40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -2525,7 +2566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2541,7 +2582,9 @@
       <c r="E41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
@@ -2551,7 +2594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -2567,7 +2610,9 @@
       <c r="E42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
@@ -2577,7 +2622,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2593,7 +2638,9 @@
       <c r="E43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
@@ -2603,7 +2650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -2619,7 +2666,9 @@
       <c r="E44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
@@ -2629,7 +2678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -2645,7 +2694,9 @@
       <c r="E45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
@@ -2655,7 +2706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2671,7 +2722,9 @@
       <c r="E46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
@@ -2681,7 +2734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>129</v>
       </c>
@@ -2695,7 +2748,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>147</v>
@@ -2709,7 +2762,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -2723,7 +2776,7 @@
         <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>147</v>
@@ -2737,7 +2790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>133</v>
       </c>
@@ -2751,7 +2804,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>147</v>
@@ -2765,7 +2818,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>135</v>
       </c>
@@ -2779,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>147</v>
@@ -2793,7 +2846,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>137</v>
       </c>
@@ -2807,7 +2860,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>147</v>
@@ -2821,7 +2874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>139</v>
       </c>
@@ -2835,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>147</v>
@@ -2849,7 +2902,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>148</v>
       </c>
@@ -2877,7 +2930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>150</v>
       </c>
@@ -2905,7 +2958,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>152</v>
       </c>
@@ -2933,7 +2986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>154</v>
       </c>
@@ -2961,7 +3014,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>156</v>
       </c>
@@ -2989,7 +3042,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>158</v>
       </c>
@@ -3017,7 +3070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>160</v>
       </c>
@@ -3045,7 +3098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>162</v>
       </c>
@@ -3073,7 +3126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>164</v>
       </c>
@@ -3101,7 +3154,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>166</v>
       </c>
@@ -3129,7 +3182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>179</v>
       </c>
@@ -3145,7 +3198,9 @@
       <c r="E66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
@@ -3155,7 +3210,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>181</v>
       </c>
@@ -3171,7 +3226,9 @@
       <c r="E67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
@@ -3181,7 +3238,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>183</v>
       </c>
@@ -3197,7 +3254,9 @@
       <c r="E68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
@@ -3207,7 +3266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>185</v>
       </c>
@@ -3223,7 +3282,9 @@
       <c r="E69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
@@ -3233,7 +3294,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>187</v>
       </c>
@@ -3249,7 +3310,9 @@
       <c r="E70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
@@ -3259,7 +3322,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>195</v>
       </c>
@@ -3287,7 +3350,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>197</v>
       </c>
@@ -3315,7 +3378,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>199</v>
       </c>
@@ -3343,7 +3406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>201</v>
       </c>
@@ -3371,7 +3434,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -3399,7 +3462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>205</v>
       </c>
@@ -3427,7 +3490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
@@ -3455,7 +3518,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>209</v>
       </c>
@@ -3483,7 +3546,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>211</v>
       </c>
@@ -3511,7 +3574,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -3539,7 +3602,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3567,7 +3630,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>217</v>
       </c>
@@ -3595,7 +3658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>219</v>
       </c>
@@ -3623,7 +3686,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>221</v>
       </c>
@@ -3651,7 +3714,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>223</v>
       </c>
@@ -3679,7 +3742,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>224</v>
       </c>
@@ -3707,7 +3770,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>225</v>
       </c>
@@ -3735,7 +3798,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>227</v>
       </c>
@@ -3763,7 +3826,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>229</v>
       </c>
@@ -3791,7 +3854,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>248</v>
       </c>
@@ -3807,7 +3870,9 @@
       <c r="E92" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
@@ -3817,7 +3882,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>250</v>
       </c>
@@ -3833,7 +3898,9 @@
       <c r="E93" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
@@ -3843,7 +3910,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>252</v>
       </c>
@@ -3859,7 +3926,9 @@
       <c r="E94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
@@ -3869,7 +3938,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>254</v>
       </c>
@@ -3885,7 +3954,9 @@
       <c r="E95" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
@@ -3895,7 +3966,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>256</v>
       </c>
@@ -3911,7 +3982,9 @@
       <c r="E96" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
@@ -3921,7 +3994,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>258</v>
       </c>
@@ -3937,7 +4010,9 @@
       <c r="E97" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
@@ -3947,7 +4022,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>260</v>
       </c>
@@ -3963,7 +4038,9 @@
       <c r="E98" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
@@ -3973,7 +4050,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>262</v>
       </c>
@@ -3989,7 +4066,9 @@
       <c r="E99" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
@@ -3999,7 +4078,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>264</v>
       </c>
@@ -4015,7 +4094,9 @@
       <c r="E100" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
@@ -4025,7 +4106,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>266</v>
       </c>
@@ -4041,7 +4122,9 @@
       <c r="E101" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
@@ -4051,7 +4134,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>268</v>
       </c>
@@ -4067,7 +4150,9 @@
       <c r="E102" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
@@ -4077,7 +4162,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>270</v>
       </c>
@@ -4093,7 +4178,9 @@
       <c r="E103" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
@@ -4103,7 +4190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>272</v>
       </c>
@@ -4119,7 +4206,9 @@
       <c r="E104" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
@@ -4129,7 +4218,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>274</v>
       </c>
@@ -4145,7 +4234,9 @@
       <c r="E105" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
@@ -4155,7 +4246,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>276</v>
       </c>
@@ -4171,7 +4262,9 @@
       <c r="E106" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
@@ -4181,7 +4274,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>278</v>
       </c>
@@ -4197,7 +4290,9 @@
       <c r="E107" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1" t="s">
@@ -4207,7 +4302,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>280</v>
       </c>
@@ -4223,7 +4318,9 @@
       <c r="E108" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
@@ -4233,7 +4330,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>282</v>
       </c>
@@ -4249,7 +4346,9 @@
       <c r="E109" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
@@ -4259,7 +4358,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>284</v>
       </c>
@@ -4275,7 +4374,9 @@
       <c r="E110" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
@@ -4285,7 +4386,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>286</v>
       </c>
@@ -4301,7 +4402,9 @@
       <c r="E111" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
@@ -4311,7 +4414,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>288</v>
       </c>
@@ -4327,7 +4430,9 @@
       <c r="E112" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
@@ -4337,7 +4442,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>313</v>
       </c>
@@ -4365,7 +4470,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>315</v>
       </c>
@@ -4393,7 +4498,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>317</v>
       </c>
@@ -4421,7 +4526,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>319</v>
       </c>
@@ -4449,7 +4554,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>321</v>
       </c>
@@ -4477,7 +4582,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>323</v>
       </c>
@@ -4505,7 +4610,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>325</v>
       </c>
@@ -4533,7 +4638,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>327</v>
       </c>
@@ -4561,7 +4666,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>329</v>
       </c>
@@ -4589,7 +4694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>331</v>
       </c>
